--- a/Output/Tables/Model 1b.xlsx
+++ b/Output/Tables/Model 1b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,18 +411,18 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.729</v>
+        <v>0.91</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0844581046655242</t>
+          <t>0.0810811661067596</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.06758662120045676</v>
+        <v>0.06774352886704478</v>
       </c>
       <c r="E2">
-        <v>61135</v>
+        <v>55488</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.6178200081252486</v>
+        <v>0.7985618950137113</v>
       </c>
       <c r="H2">
-        <v>0.8401799918747513</v>
+        <v>1.021438104986289</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -446,18 +446,18 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.415</v>
+        <v>0.389</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0844581046655242</t>
+          <t>0.0810811661067596</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.01613191260240675</v>
+        <v>0.01654970555267945</v>
       </c>
       <c r="E3">
-        <v>61135</v>
+        <v>55488</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -465,12 +465,292 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.3884630037690409</v>
+        <v>0.3617757343658423</v>
       </c>
       <c r="H3">
-        <v>0.4415369962309591</v>
+        <v>0.4162242656341577</v>
       </c>
       <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.365</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.02412527269832829</v>
+      </c>
+      <c r="E4">
+        <v>55488</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-0.40468607358875</v>
+      </c>
+      <c r="H4">
+        <v>-0.32531392641125</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>educ</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.292</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.01278016035775211</v>
+      </c>
+      <c r="E5">
+        <v>55488</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>0.2709766362114978</v>
+      </c>
+      <c r="H5">
+        <v>0.3130233637885022</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>polint</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.299</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.01479126976523935</v>
+      </c>
+      <c r="E6">
+        <v>55488</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>-0.3233316387638187</v>
+      </c>
+      <c r="H6">
+        <v>-0.2746683612361813</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sexMale</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.014</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.008359596027554048</v>
+      </c>
+      <c r="E7">
+        <v>55488</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>0.0002484645346735904</v>
+      </c>
+      <c r="H7">
+        <v>0.02775153546532641</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>surveyevs2008</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>-0.138</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.01492129194477103</v>
+      </c>
+      <c r="E8">
+        <v>55488</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>-0.1625455252491483</v>
+      </c>
+      <c r="H8">
+        <v>-0.1134544747508517</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>surveywvs1994</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.094</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.01500996242349729</v>
+      </c>
+      <c r="E9">
+        <v>55488</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>-0.118691388186653</v>
+      </c>
+      <c r="H9">
+        <v>-0.06930861181334697</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>surveywvs1999</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.193</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.0220727294712752</v>
+      </c>
+      <c r="E10">
+        <v>55488</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>0.1566903600197523</v>
+      </c>
+      <c r="H10">
+        <v>0.2293096399802477</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>surveywvs2005</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.166</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.01924403826295021</v>
+      </c>
+      <c r="E11">
+        <v>55488</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>0.1343435570574469</v>
+      </c>
+      <c r="H11">
+        <v>0.1976564429425531</v>
+      </c>
+      <c r="I11">
         <v>20</v>
       </c>
     </row>
